--- a/screen size.xlsx
+++ b/screen size.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\fonts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5235" tabRatio="603" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5235" tabRatio="603" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="81">
   <si>
     <t>Desktop</t>
   </si>
@@ -262,6 +262,21 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: </t>
+  </si>
+  <si>
+    <t>On Mobile follow following font size in @media Jequire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON LABDSCAP </t>
+  </si>
+  <si>
+    <t>10% Reduce</t>
+  </si>
+  <si>
+    <t>H1, H2</t>
   </si>
 </sst>
 </file>
@@ -623,15 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -646,6 +652,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2314,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -3561,10 +3576,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,38 +3594,38 @@
     <col min="8" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H1" s="35" t="s">
+    <row r="1" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -3632,600 +3647,615 @@
       <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="35">
         <v>60</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="35">
         <f>H3/16</f>
         <v>3.75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="38">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="35">
         <f>H3-1</f>
         <v>59</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="35">
         <f t="shared" ref="I4:I62" si="0">H4/16</f>
         <v>3.6875</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H5" s="38">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="35">
         <f t="shared" ref="H5:H62" si="1">H4-1</f>
         <v>58</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="35">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H6" s="38">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="35">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="35">
         <f t="shared" si="0"/>
         <v>3.5625</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="38">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="35">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="35">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H8" s="38">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="35">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="35">
         <f t="shared" si="0"/>
         <v>3.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="38">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="35">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="35">
         <f t="shared" si="0"/>
         <v>3.375</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="38">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="35">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="35">
         <f t="shared" si="0"/>
         <v>3.3125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11" s="38">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="35">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="35">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="38">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="35">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="35">
         <f t="shared" si="0"/>
         <v>3.1875</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="38">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="35">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="35">
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="38">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="35">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="35">
         <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H15" s="38">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="35">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="38">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="35">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="35">
         <f t="shared" si="0"/>
         <v>2.9375</v>
       </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="38">
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="35">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="35">
         <f t="shared" si="0"/>
         <v>2.875</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="38">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="35">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="35">
         <f t="shared" si="0"/>
         <v>2.8125</v>
       </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="38">
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="35">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="35">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="38">
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="35">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="35">
         <f t="shared" si="0"/>
         <v>2.6875</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H21" s="38">
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="35">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="35">
         <f t="shared" si="0"/>
         <v>2.625</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H22" s="38">
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="35">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="35">
         <f t="shared" si="0"/>
         <v>2.5625</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="38">
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="35">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="35">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="38">
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H24" s="35">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="35">
         <f t="shared" si="0"/>
         <v>2.4375</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="38">
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="35">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="35">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="38">
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="35">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="35">
         <f t="shared" si="0"/>
         <v>2.3125</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="38">
+    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="35">
         <f>H26-1</f>
         <v>36</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="35">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="38">
+    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="35">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="35">
         <f t="shared" si="0"/>
         <v>2.1875</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="38">
+    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="35">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="35">
         <f t="shared" si="0"/>
         <v>2.125</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="38">
+    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="35">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="35">
         <f t="shared" si="0"/>
         <v>2.0625</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H31" s="38">
+    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="35">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="35">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="38">
+    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="35">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="35">
         <f t="shared" si="0"/>
         <v>1.9375</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="38">
+      <c r="H33" s="35">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="35">
         <f t="shared" si="0"/>
         <v>1.875</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H34" s="38">
+      <c r="H34" s="35">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="35">
         <f t="shared" si="0"/>
         <v>1.8125</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H35" s="38">
+      <c r="H35" s="35">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="35">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H36" s="38">
+      <c r="H36" s="35">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="35">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H37" s="38">
+      <c r="H37" s="35">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="35">
         <f t="shared" si="0"/>
         <v>1.625</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H38" s="38">
+      <c r="H38" s="35">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="35">
         <f t="shared" si="0"/>
         <v>1.5625</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H39" s="38">
+      <c r="H39" s="35">
         <f>H38-1</f>
         <v>24</v>
       </c>
-      <c r="I39" s="38">
+      <c r="I39" s="35">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H40" s="38">
+      <c r="H40" s="35">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40" s="35">
         <f t="shared" si="0"/>
         <v>1.4375</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H41" s="38">
+      <c r="H41" s="35">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I41" s="38">
+      <c r="I41" s="35">
         <f t="shared" si="0"/>
         <v>1.375</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H42" s="38">
+      <c r="H42" s="35">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I42" s="38">
+      <c r="I42" s="35">
         <f t="shared" si="0"/>
         <v>1.3125</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H43" s="38">
+      <c r="H43" s="35">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I43" s="38">
+      <c r="I43" s="35">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H44" s="38">
+      <c r="H44" s="35">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I44" s="38">
+      <c r="I44" s="35">
         <f t="shared" si="0"/>
         <v>1.1875</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H45" s="38">
+      <c r="H45" s="35">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="35">
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H46" s="38">
+      <c r="H46" s="35">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="35">
         <f t="shared" si="0"/>
         <v>1.0625</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H47" s="38">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I47" s="38">
+      <c r="H47" s="35">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I47" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H48" s="38">
+      <c r="H48" s="35">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="35">
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H49" s="38">
+      <c r="H49" s="35">
         <f>H48-1</f>
         <v>14</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="35">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H50" s="38">
+      <c r="H50" s="35">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I50" s="38">
+      <c r="I50" s="35">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H51" s="38">
+      <c r="H51" s="35">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I51" s="38">
+      <c r="I51" s="35">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H52" s="38">
+      <c r="H52" s="35">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I52" s="38">
+      <c r="I52" s="35">
         <f t="shared" si="0"/>
         <v>0.6875</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H53" s="38">
+      <c r="H53" s="35">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I53" s="38">
+      <c r="I53" s="35">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H54" s="38">
+      <c r="H54" s="35">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I54" s="38">
+      <c r="I54" s="35">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H55" s="38">
+      <c r="H55" s="35">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I55" s="38">
+      <c r="I55" s="35">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H56" s="38">
+      <c r="H56" s="35">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56" s="35">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H57" s="38">
+      <c r="H57" s="35">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I57" s="38">
+      <c r="I57" s="35">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H58" s="38">
+      <c r="H58" s="35">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I58" s="38">
+      <c r="I58" s="35">
         <f t="shared" si="0"/>
         <v>0.3125</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H59" s="38">
+      <c r="H59" s="35">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I59" s="38">
+      <c r="I59" s="35">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H60" s="38">
+      <c r="H60" s="35">
         <f>H59-1</f>
         <v>3</v>
       </c>
-      <c r="I60" s="38">
+      <c r="I60" s="35">
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H61" s="38">
+      <c r="H61" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I61" s="38">
+      <c r="I61" s="35">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H62" s="38">
+      <c r="H62" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I62" s="38">
+      <c r="I62" s="35">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>

--- a/screen size.xlsx
+++ b/screen size.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="86">
   <si>
     <t>Desktop</t>
   </si>
@@ -277,6 +277,21 @@
   </si>
   <si>
     <t>H1, H2</t>
+  </si>
+  <si>
+    <t>P Text</t>
+  </si>
+  <si>
+    <t>keep same</t>
+  </si>
+  <si>
+    <t>ON PORTRATE</t>
+  </si>
+  <si>
+    <t>20% Reduce</t>
+  </si>
+  <si>
+    <t>Full Width Image</t>
   </si>
 </sst>
 </file>
@@ -3576,10 +3591,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3592,6 +3607,7 @@
     <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3791,7 +3807,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H17" s="35">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -3801,7 +3817,7 @@
         <v>2.875</v>
       </c>
     </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H18" s="35">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -3813,8 +3829,11 @@
       <c r="K18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H19" s="35">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -3829,8 +3848,11 @@
       <c r="L19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H20" s="35">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -3839,8 +3861,17 @@
         <f t="shared" si="0"/>
         <v>2.6875</v>
       </c>
-    </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H21" s="35">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -3849,8 +3880,11 @@
         <f t="shared" si="0"/>
         <v>2.625</v>
       </c>
-    </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H22" s="35">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -3860,7 +3894,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H23" s="35">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -3870,7 +3904,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H24" s="35">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -3880,7 +3914,7 @@
         <v>2.4375</v>
       </c>
     </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H25" s="35">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -3890,7 +3924,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H26" s="35">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -3900,7 +3934,7 @@
         <v>2.3125</v>
       </c>
     </row>
-    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H27" s="35">
         <f>H26-1</f>
         <v>36</v>
@@ -3910,7 +3944,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="28" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H28" s="35">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -3920,7 +3954,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="29" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H29" s="35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -3930,7 +3964,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H30" s="35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -3940,7 +3974,7 @@
         <v>2.0625</v>
       </c>
     </row>
-    <row r="31" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H31" s="35">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -3950,7 +3984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H32" s="35">
         <f t="shared" si="1"/>
         <v>31</v>

--- a/screen size.xlsx
+++ b/screen size.xlsx
@@ -603,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -677,6 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3591,10 +3592,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,9 +3609,11 @@
     <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H1" s="32" t="s">
         <v>72</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H4" s="35">
         <f>H3-1</f>
         <v>59</v>
@@ -3681,7 +3684,7 @@
         <v>3.6875</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H5" s="35">
         <f t="shared" ref="H5:H62" si="1">H4-1</f>
         <v>58</v>
@@ -3691,7 +3694,7 @@
         <v>3.625</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H6" s="35">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -3701,7 +3704,7 @@
         <v>3.5625</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H7" s="35">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -3710,8 +3713,14 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>1366</v>
+      </c>
+      <c r="Q7">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" s="35">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -3721,7 +3730,7 @@
         <v>3.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H9" s="35">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -3730,8 +3739,19 @@
         <f t="shared" si="0"/>
         <v>3.375</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>1865956</v>
+      </c>
+      <c r="Q9">
+        <v>589824</v>
+      </c>
+      <c r="R9">
+        <f>SUM(P9:Q9)</f>
+        <v>2455780</v>
+      </c>
+      <c r="S9" s="39"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" s="35">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -3741,7 +3761,7 @@
         <v>3.3125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H11" s="35">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -3750,8 +3770,11 @@
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H12" s="35">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -3760,8 +3783,12 @@
         <f t="shared" si="0"/>
         <v>3.1875</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f>R11/13.6</f>
+        <v>115.22058823529412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H13" s="35">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -3771,7 +3798,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H14" s="35">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -3781,7 +3808,7 @@
         <v>3.0625</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H15" s="35">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -3791,7 +3818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H16" s="35">
         <f t="shared" si="1"/>
         <v>47</v>
